--- a/09 Concept Selection/Pugh.xlsx
+++ b/09 Concept Selection/Pugh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinkertanker/Documents/ESD/40.014 ESA/ESAProject2019Team08/09 Concept Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD3F16-F550-F64F-A5F8-271ECD6E8AAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81C659-4C8C-B947-B73A-07E9DEE32355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="2380" windowWidth="23860" windowHeight="15620" xr2:uid="{DE6EB0C4-78A3-465E-8E13-D3A0733613B6}"/>
   </bookViews>
@@ -534,19 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF798C"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,18 +578,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,10 +597,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,9 +616,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E373FA-40E0-4DF3-A5FA-DE68179C4757}">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -968,7 +971,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -992,110 +995,110 @@
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="180">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="120">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2">
@@ -1150,7 +1153,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="100">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2">
@@ -1205,7 +1208,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="180">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2">
@@ -1260,7 +1263,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="140">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="2">
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="120">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="2">
@@ -1370,62 +1373,62 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="160">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="16">
         <v>3.5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="16">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="16">
         <v>2.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="16">
         <v>4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="16">
         <v>4.5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="16">
         <v>4.5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="16">
         <v>3.5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="16">
         <v>4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="16">
         <v>2.5</v>
       </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="16">
+        <v>3</v>
+      </c>
+      <c r="L10" s="16">
         <v>2.5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="16">
         <v>2.5</v>
       </c>
-      <c r="N10" s="2">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="16">
+        <v>3</v>
+      </c>
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>3.5604166666666668</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="100">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="2">
@@ -1467,15 +1470,15 @@
       <c r="N11" s="2">
         <v>1.5</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="17">
         <f t="shared" si="0"/>
         <v>2.1641666666666666</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="17" t="s">
         <v>0</v>
       </c>
     </row>
